--- a/Budget prévisionnel.xlsx
+++ b/Budget prévisionnel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\Mega\home\workspace\green-it-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C55A9BF-BDA4-4712-9A0D-7689487A79E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0D6B9-B9EA-488F-9AF5-BE42B1EDD4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAE49AC-3F04-4B0E-8AFE-F320C7836EBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAAE49AC-3F04-4B0E-8AFE-F320C7836EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau budget" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="74">
   <si>
     <t>Budget prévisionnel pour l'application</t>
   </si>
@@ -236,28 +236,34 @@
     <t>Lancement</t>
   </si>
   <si>
-    <t>TVA 5.5% BONUS ECOLOGIE</t>
-  </si>
-  <si>
-    <t>Réunion, budget</t>
-  </si>
-  <si>
-    <t>Maquettage, UML</t>
-  </si>
-  <si>
-    <t>VSCode, Git, Postman</t>
-  </si>
-  <si>
-    <t>Tests unitaire et end to end</t>
-  </si>
-  <si>
-    <t>Hebergement, Sécurité (firewall), Https</t>
-  </si>
-  <si>
-    <t>Analytics, CI CD, Trello</t>
-  </si>
-  <si>
-    <t>Trello / Jira, Support client</t>
+    <t>Gestion</t>
+  </si>
+  <si>
+    <t>Audit des besoins &amp; Normes ISO</t>
+  </si>
+  <si>
+    <t>Rédaction du cahier des charges</t>
+  </si>
+  <si>
+    <t>Architecture de la base de données</t>
+  </si>
+  <si>
+    <t>Recette fonctionnelle &amp; QA</t>
+  </si>
+  <si>
+    <t>Mise en production (Cloud)</t>
+  </si>
+  <si>
+    <t>Stratégie de communication &amp; Salon</t>
+  </si>
+  <si>
+    <t>Suivi de projet (tout au long)</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>TVA 5.5% (BONUS ECOLOGIE)</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -616,24 +622,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -668,11 +661,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -682,10 +683,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -706,26 +707,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +1077,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1087,7 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1122,10 +1107,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="27" t="s">
         <v>56</v>
       </c>
@@ -1143,20 +1128,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="34">
+      <c r="B6" s="41"/>
+      <c r="C6" s="33">
         <v>750</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>600</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="34">
         <v>800</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>500</v>
       </c>
       <c r="G6" s="31">
@@ -1165,14 +1150,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
@@ -1194,191 +1179,170 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="38">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="31">
+      <c r="F10" s="38"/>
+      <c r="G10" s="34">
         <f>SUMPRODUCT($C$6:$F$6,C10:F10)</f>
         <v>7600</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="38">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="38">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="38">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31">
+      <c r="F11" s="38"/>
+      <c r="G11" s="34">
         <f>SUMPRODUCT($C$6:$F$6,C11:F11)</f>
         <v>4900</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="38">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="38">
+        <f>SUM(20,12)</f>
         <v>32</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="38">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31">
+      <c r="F12" s="38"/>
+      <c r="G12" s="34">
         <f t="shared" ref="G12:G16" si="0">SUMPRODUCT($C$6:$F$6,C12:F12)</f>
         <v>23050</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="38">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="38">
         <v>4</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="38">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31">
+      <c r="F13" s="38"/>
+      <c r="G13" s="34">
         <f t="shared" si="0"/>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="38">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="31">
+      <c r="F14" s="38"/>
+      <c r="G14" s="34">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="38">
         <v>10</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="34">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38">
         <v>8</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="31">
+      <c r="F16" s="38"/>
+      <c r="G16" s="34">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="17">
+      <c r="B17" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="4">
         <f>SUM(C10:C16)</f>
         <v>15</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="4">
         <f t="shared" ref="D17:F17" si="1">SUM(D10:D16)</f>
         <v>42</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1388,92 +1352,90 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="33">
-        <f>G17+(G17*0.05)</f>
-        <v>57802.5</v>
+      <c r="F18" s="1"/>
+      <c r="G18" s="32">
+        <f>G17+(G17*0.055)</f>
+        <v>58077.75</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:G9" xr:uid="{76D0B654-205B-4C31-BD0A-D187766F06B3}"/>
@@ -1680,25 +1642,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1713,10 +1675,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="12">
         <v>450</v>
       </c>
@@ -2103,10 +2065,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="17">
         <f>(C11+C14+C18+C19+C22+C26)*C6</f>
         <v>6750</v>
@@ -2129,10 +2091,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="18">
         <f>C28*1.2</f>
         <v>8100</v>
@@ -2199,10 +2161,10 @@
       <c r="E3" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2217,10 +2179,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="1">
         <v>450</v>
       </c>
@@ -2965,16 +2927,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a68a59c0-75d8-48cf-a8b0-39a6d65571e7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D5E28810A37F74AB948AE34DD733908" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a9af923b11698e52edcfd4b31e490578">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a68a59c0-75d8-48cf-a8b0-39a6d65571e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d2a819dc7bdaebb78577031c28164993" ns2:_="">
     <xsd:import namespace="a68a59c0-75d8-48cf-a8b0-39a6d65571e7"/>
@@ -3158,6 +3110,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a68a59c0-75d8-48cf-a8b0-39a6d65571e7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{014E456A-7A02-4248-9310-2F79052BCCED}">
   <ds:schemaRefs>
@@ -3167,16 +3129,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08609A88-3B3F-40DD-BB04-5A054F7394D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a68a59c0-75d8-48cf-a8b0-39a6d65571e7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEBD5805-8968-49D0-A091-30B06AC4AB86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3192,4 +3144,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08609A88-3B3F-40DD-BB04-5A054F7394D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a68a59c0-75d8-48cf-a8b0-39a6d65571e7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>